--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7545" tabRatio="686" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7545" tabRatio="686" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Maven" sheetId="16" r:id="rId2"/>
-    <sheet name="Log4j" sheetId="15" r:id="rId3"/>
-    <sheet name="Objects" sheetId="14" r:id="rId4"/>
-    <sheet name="Test ng" sheetId="12" r:id="rId5"/>
-    <sheet name="ant" sheetId="13" r:id="rId6"/>
-    <sheet name="chellanges" sheetId="11" r:id="rId7"/>
-    <sheet name="exception handeling" sheetId="7" r:id="rId8"/>
-    <sheet name="read excel" sheetId="9" r:id="rId9"/>
-    <sheet name="DB" sheetId="3" r:id="rId10"/>
-    <sheet name="Git" sheetId="18" r:id="rId11"/>
-    <sheet name="Java" sheetId="4" r:id="rId12"/>
-    <sheet name="String Class" sheetId="5" r:id="rId13"/>
-    <sheet name="regex" sheetId="6" r:id="rId14"/>
-    <sheet name="Java I O" sheetId="8" r:id="rId15"/>
+    <sheet name="Maven" sheetId="16" r:id="rId1"/>
+    <sheet name="Jenkins" sheetId="19" r:id="rId2"/>
+    <sheet name="Questions" sheetId="1" r:id="rId3"/>
+    <sheet name="Log4j" sheetId="15" r:id="rId4"/>
+    <sheet name="Objects" sheetId="14" r:id="rId5"/>
+    <sheet name="Test ng" sheetId="12" r:id="rId6"/>
+    <sheet name="ant" sheetId="13" r:id="rId7"/>
+    <sheet name="chellanges" sheetId="11" r:id="rId8"/>
+    <sheet name="exception handeling" sheetId="7" r:id="rId9"/>
+    <sheet name="read excel" sheetId="9" r:id="rId10"/>
+    <sheet name="DB" sheetId="3" r:id="rId11"/>
+    <sheet name="Git" sheetId="18" r:id="rId12"/>
+    <sheet name="Java" sheetId="4" r:id="rId13"/>
+    <sheet name="String Class" sheetId="5" r:id="rId14"/>
+    <sheet name="regex" sheetId="6" r:id="rId15"/>
+    <sheet name="Java I O" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="739">
   <si>
     <t>Question</t>
   </si>
@@ -4962,17 +4963,11 @@
     <t>git add .</t>
   </si>
   <si>
-    <t>git commit -m "MSG "</t>
-  </si>
-  <si>
     <t>On branch master
 nothing to commit, working tree clean</t>
   </si>
   <si>
     <t>git add</t>
-  </si>
-  <si>
-    <t>git commit</t>
   </si>
   <si>
     <t>git log</t>
@@ -5037,6 +5032,188 @@
   </si>
   <si>
     <t>git mv</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>git commit -m "MSG "
+git commit -am "asasas"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; commit all files direcrly without stage , it will commit all files from working dir to repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git commit -m/-am </t>
+  </si>
+  <si>
+    <t>git checkout -- "file.html"</t>
+  </si>
+  <si>
+    <t>git reset HEAD file.txt</t>
+  </si>
+  <si>
+    <t>unstage file ( it is not revert old content changes ,it will just move the same file to working area where file will be considered as not staged )</t>
+  </si>
+  <si>
+    <t>git reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git reset </t>
+  </si>
+  <si>
+    <t>git checkout  &lt;commitID&gt; -- &lt;fileName&gt;</t>
+  </si>
+  <si>
+    <t>copy old version of a file to the working directory, but now you must commit it again to make it latest changes in the repository</t>
+  </si>
+  <si>
+    <t>git checkout</t>
+  </si>
+  <si>
+    <t>git remote add &lt;localNameofGlobalRepo&gt; &lt;Repo address online.git&gt;</t>
+  </si>
+  <si>
+    <t>git remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows remote repos that you have </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestNG from command line </t>
+  </si>
+  <si>
+    <t>path to .class files</t>
+  </si>
+  <si>
+    <t>1. move to project folder
+2. set classpath=" path to bin folder of project" 
+3. set classpath = "Path to all jar files"
+4. Run CMD "java org.testng.TestNG testng.xml"</t>
+  </si>
+  <si>
+    <t>semi colum</t>
+  </si>
+  <si>
+    <t>how to trigger from jenkins</t>
+  </si>
+  <si>
+    <t>create project in jenkins</t>
+  </si>
+  <si>
+    <t>method 2: create a bat file with below command</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java -cp bin;lib/* org.testng.TestNG testng.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+bin folder is inside project folder where .class files exists
+lib folder is inside project folder where we put all the jar files required</t>
+    </r>
+  </si>
+  <si>
+    <t>go to General tab &gt;Advance options ( see screen ) and put path to project folder in the "Use custom workspace" 
+Directory  &gt; "Path to project"</t>
+  </si>
+  <si>
+    <t>now go to the "Build" section on the General tab (in the bottom)</t>
+  </si>
+  <si>
+    <t>Select "Execute windows batch command"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">put "run.bat" there </t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes all known “users” </t>
+  </si>
+  <si>
+    <t>New item</t>
+  </si>
+  <si>
+    <t>Build History</t>
+  </si>
+  <si>
+    <t>My Views</t>
+  </si>
+  <si>
+    <t>All | custom views for BA or Testers or other stake holders</t>
+  </si>
+  <si>
+    <t>Enter an item name</t>
+  </si>
+  <si>
+    <t>FreeStyle Project &gt; 
+Pipeline &gt; Long running activities
+External Job
+Folder</t>
+  </si>
+  <si>
+    <t>pipeline</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This type of job allows you to record the execution of a process run outside Jenkins, even on a remote machine. This is designed so that you can use Jenkins as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dashboard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of your existing automation system.</t>
+    </r>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>success | not build |Error</t>
+  </si>
+  <si>
+    <t>Credentials</t>
+  </si>
+  <si>
+    <t>Manage Jenkins</t>
+  </si>
+  <si>
+    <t>S(success) | W(weather report) |Last Success | Failure |Duration |RunButton</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -5656,7 +5833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -5956,6 +6133,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5975,6 +6161,431 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4295775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image result for maven build lifecycle"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2495550" y="4181475"/>
+          <a:ext cx="3943350" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4314904</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6438445</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>151682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6458029" y="4238625"/>
+          <a:ext cx="2123541" cy="3352082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="string implements serializable, comparable, charsequence"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7410450" y="76200"/>
+          <a:ext cx="3686175" cy="2257425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>590549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="java string literal"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11296650" y="3962432"/>
+          <a:ext cx="4143375" cy="3676617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3495242</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>18758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="15592425"/>
+          <a:ext cx="3466667" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4933950</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323111</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>18584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933950" y="15535275"/>
+          <a:ext cx="5914286" cy="3723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5715000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Java IO"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="3267075"/>
+          <a:ext cx="6400800" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>46448</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="5105400"/>
+          <a:ext cx="9419048" cy="4638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132068</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="10296525"/>
+          <a:ext cx="10257143" cy="5733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6338,431 +6949,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="string implements serializable, comparable, charsequence"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7410450" y="76200"/>
-          <a:ext cx="3686175" cy="2257425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152432</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>590549</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="java string literal"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11296650" y="3962432"/>
-          <a:ext cx="4143375" cy="3676617"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3495242</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>18758</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5543550" y="15592425"/>
-          <a:ext cx="3466667" cy="2333333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4933950</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323111</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>18584</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4933950" y="15535275"/>
-          <a:ext cx="5914286" cy="3723809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5715000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Java IO"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685800" y="3267075"/>
-          <a:ext cx="6400800" cy="1752600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>46448</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85145</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="619125" y="5105400"/>
-          <a:ext cx="9419048" cy="4638095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132068</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>85008</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="552450" y="10296525"/>
-          <a:ext cx="10257143" cy="5733333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4295775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image result for maven build lifecycle"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2495550" y="4181475"/>
-          <a:ext cx="3943350" cy="2828925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4314904</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6438445</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>151682</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6458029" y="4238625"/>
-          <a:ext cx="2123541" cy="3352082"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -6898,7 +7084,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3133349</xdr:colOff>
+      <xdr:colOff>3047624</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>75984</xdr:rowOff>
     </xdr:to>
@@ -6935,8 +7121,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>160351</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323636</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>94767</xdr:rowOff>
     </xdr:to>
@@ -6973,8 +7159,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2761949</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1060</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>47202</xdr:rowOff>
     </xdr:to>
@@ -7050,7 +7236,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1960683</xdr:colOff>
+      <xdr:colOff>287004</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>18290</xdr:rowOff>
     </xdr:to>
@@ -7087,8 +7273,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>894386</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2268707</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>9467</xdr:rowOff>
     </xdr:to>
@@ -7109,6 +7295,44 @@
         <a:xfrm>
           <a:off x="3228975" y="23774400"/>
           <a:ext cx="7714286" cy="466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1864178</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>26821</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>128512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7987392" y="25200429"/>
+          <a:ext cx="14028571" cy="6047619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7613,2360 +7837,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D215"/>
-  <sheetViews>
-    <sheetView topLeftCell="A172" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H169" sqref="H169"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="98.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="23" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="49"/>
-      <c r="C54" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="49" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="49"/>
-      <c r="C55" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="49"/>
-      <c r="C56" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="49"/>
-      <c r="C57" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="49"/>
-      <c r="C58" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="49"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="49"/>
-      <c r="C59" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="49"/>
-    </row>
-    <row r="61" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C62" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C74" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="C75" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C78" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C80" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C82" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" ht="345" x14ac:dyDescent="0.25">
-      <c r="B89" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B91" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="D92" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D93" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="D94" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D95" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B102" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B107" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C112" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C116" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C119" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C120" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C121" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C127" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D128" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B130" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C132" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C133" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C134" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D135" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B141" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C142" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="D144" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C148" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B150" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="C150" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="D150" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="C151" s="40"/>
-      <c r="D151" s="41" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="42"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="41"/>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B153" s="42"/>
-      <c r="C153" s="40"/>
-      <c r="D153" s="46" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B154" s="42"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="46"/>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B155" s="42"/>
-      <c r="C155" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="D155" s="46"/>
-    </row>
-    <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="43"/>
-      <c r="C156" t="s">
-        <v>369</v>
-      </c>
-      <c r="D156" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B158" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B160" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="163" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="36"/>
-      <c r="C163" s="37"/>
-      <c r="D163" s="38"/>
-    </row>
-    <row r="164" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B164" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="C164" s="75" t="s">
-        <v>475</v>
-      </c>
-      <c r="D164" s="38" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B165" s="39"/>
-      <c r="C165" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="D165" s="41" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B166" s="42"/>
-      <c r="C166" s="70" t="s">
-        <v>488</v>
-      </c>
-      <c r="D166" s="72" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B167" s="42"/>
-      <c r="C167" s="70" t="s">
-        <v>483</v>
-      </c>
-      <c r="D167" s="72" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B168" s="42"/>
-      <c r="C168" s="70"/>
-      <c r="D168" s="72" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B169" s="42"/>
-      <c r="C169" s="70"/>
-      <c r="D169" s="72" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="42"/>
-      <c r="C170" s="70" t="s">
-        <v>479</v>
-      </c>
-      <c r="D170" s="72" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B171" s="42"/>
-      <c r="C171" s="71" t="s">
-        <v>481</v>
-      </c>
-      <c r="D171" s="72" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="42"/>
-      <c r="C172" s="70"/>
-      <c r="D172" s="72"/>
-    </row>
-    <row r="173" spans="2:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="B173" s="42"/>
-      <c r="C173" s="70" t="s">
-        <v>485</v>
-      </c>
-      <c r="D173" s="72" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="43"/>
-      <c r="C174" s="73"/>
-      <c r="D174" s="74"/>
-    </row>
-    <row r="175" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="C176" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="D176" s="38"/>
-    </row>
-    <row r="177" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B177" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="C177" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="D177" s="41" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="42"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="41"/>
-    </row>
-    <row r="179" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B179" s="42"/>
-      <c r="C179" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="D179" s="41" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="42"/>
-      <c r="C180" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="D180" s="41" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B181" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="C181" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="D181" s="41" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="42"/>
-      <c r="C182" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="D182" s="41"/>
-    </row>
-    <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="43"/>
-      <c r="C183" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="D183" s="45"/>
-    </row>
-    <row r="184" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="185" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B185" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="C185" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="D185" s="38" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B186" s="42"/>
-      <c r="C186" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="D186" s="41" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="42"/>
-      <c r="C187" s="40"/>
-      <c r="D187" s="41"/>
-    </row>
-    <row r="188" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="43"/>
-      <c r="C188" s="44"/>
-      <c r="D188" s="45"/>
-    </row>
-    <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="190" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B190" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="C190" s="37" t="s">
-        <v>395</v>
-      </c>
-      <c r="D190" s="38" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="42"/>
-      <c r="C191" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="D191" s="41"/>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="42"/>
-      <c r="C192" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="D192" s="41"/>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="42"/>
-      <c r="C193" s="40" t="s">
-        <v>393</v>
-      </c>
-      <c r="D193" s="41"/>
-    </row>
-    <row r="194" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="43"/>
-      <c r="C194" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="D194" s="45"/>
-    </row>
-    <row r="195" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="36"/>
-      <c r="C196" s="37" t="s">
-        <v>449</v>
-      </c>
-      <c r="D196" s="38" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="42"/>
-      <c r="C197" s="40" t="s">
-        <v>450</v>
-      </c>
-      <c r="D197" s="41" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="42"/>
-      <c r="C198" s="40"/>
-      <c r="D198" s="41"/>
-    </row>
-    <row r="199" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="43"/>
-      <c r="C199" s="44" t="s">
-        <v>468</v>
-      </c>
-      <c r="D199" s="45" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B201" s="68" t="s">
-        <v>470</v>
-      </c>
-      <c r="C201" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="D201" s="38"/>
-    </row>
-    <row r="202" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B202" s="42"/>
-      <c r="C202" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="D202" s="41" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B203" s="42"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="41" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B204" s="42"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="41"/>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B205" s="42"/>
-      <c r="C205" s="40"/>
-      <c r="D205" s="41"/>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B206" s="42"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="41"/>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B207" s="42"/>
-      <c r="C207" s="40"/>
-      <c r="D207" s="41"/>
-    </row>
-    <row r="208" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="43"/>
-      <c r="C208" s="44"/>
-      <c r="D208" s="45"/>
-    </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C210" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="212" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C212" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C213" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C214" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C215" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B13"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>669</v>
-      </c>
-      <c r="C2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C3" t="s">
-        <v>664</v>
-      </c>
-      <c r="D3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>679</v>
-      </c>
-      <c r="C4" t="s">
-        <v>665</v>
-      </c>
-      <c r="D4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>680</v>
-      </c>
-      <c r="C5" t="s">
-        <v>668</v>
-      </c>
-      <c r="D5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>683</v>
-      </c>
-      <c r="C6" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>688</v>
-      </c>
-      <c r="C7" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>690</v>
-      </c>
-      <c r="C8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D8" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>697</v>
-      </c>
-      <c r="C10" t="s">
-        <v>675</v>
-      </c>
-      <c r="D10" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>676</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>680</v>
-      </c>
-      <c r="D15" t="s">
-        <v>681</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>683</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>688</v>
-      </c>
-      <c r="D18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>690</v>
-      </c>
-      <c r="D19" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>695</v>
-      </c>
-      <c r="D22" t="s">
-        <v>696</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="47.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" ht="375" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" ht="390" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:4" ht="141" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C31" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="76" t="s">
-        <v>490</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C35" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="14" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="14" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="14" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="14" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="14" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="14" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="14" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="14" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="14" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="14" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>656</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="72.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>243</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>255</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>256</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>257</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>495</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="113.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
@@ -10071,1227 +7941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="102" t="s">
-        <v>570</v>
-      </c>
-      <c r="C1" s="101" t="s">
-        <v>576</v>
-      </c>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="103" t="s">
-        <v>575</v>
-      </c>
-      <c r="C2" s="100">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="103" t="s">
-        <v>574</v>
-      </c>
-      <c r="C3" s="100">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="103" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="100">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="103" t="s">
-        <v>573</v>
-      </c>
-      <c r="C5" s="100">
-        <v>4</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="103" t="s">
-        <v>572</v>
-      </c>
-      <c r="C6" s="100">
-        <v>5</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="103" t="s">
-        <v>571</v>
-      </c>
-      <c r="C7" s="100">
-        <v>6</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="103" t="s">
-        <v>592</v>
-      </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="104" t="s">
-        <v>584</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="105" t="s">
-        <v>593</v>
-      </c>
-      <c r="B16" s="105" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="106" t="s">
-        <v>595</v>
-      </c>
-      <c r="B17" s="106" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
-        <v>597</v>
-      </c>
-      <c r="B18" s="106" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="106" t="s">
-        <v>599</v>
-      </c>
-      <c r="B19" s="106" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="106" t="s">
-        <v>601</v>
-      </c>
-      <c r="B20" s="106" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="106" t="s">
-        <v>603</v>
-      </c>
-      <c r="B21" s="106" t="s">
-        <v>604</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:D8">
-    <sortCondition ref="C1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="68.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="69.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>466</v>
-      </c>
-      <c r="B1" s="107"/>
-    </row>
-    <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>619</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>628</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>627</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E96"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="51" t="s">
-        <v>403</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>404</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>414</v>
-      </c>
-      <c r="E5" s="58"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56" t="s">
-        <v>415</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>419</v>
-      </c>
-      <c r="E6" s="58"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="55"/>
-      <c r="C7" s="56" t="s">
-        <v>416</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="E7" s="58"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>421</v>
-      </c>
-      <c r="E8" s="58"/>
-    </row>
-    <row r="9" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56" t="s">
-        <v>418</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>422</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="55"/>
-      <c r="C10" s="56" t="s">
-        <v>424</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>425</v>
-      </c>
-      <c r="E10" s="58"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56" t="s">
-        <v>424</v>
-      </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56" t="s">
-        <v>426</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>427</v>
-      </c>
-      <c r="E12" s="58"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-    </row>
-    <row r="14" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="s">
-        <v>428</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56" t="s">
-        <v>430</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-    </row>
-    <row r="16" spans="2:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="B16" s="55" t="s">
-        <v>431</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-    </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
-        <v>431</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>434</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="55" t="s">
-        <v>436</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="50" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>443</v>
-      </c>
-      <c r="D55" s="66" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="55"/>
-      <c r="C56" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="D56" s="66" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B57" s="55"/>
-      <c r="C57" s="57" t="s">
-        <v>444</v>
-      </c>
-      <c r="D57" s="58" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="55"/>
-      <c r="C58" s="57" t="s">
-        <v>445</v>
-      </c>
-      <c r="D58" s="64" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="55"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="64"/>
-    </row>
-    <row r="60" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="59"/>
-      <c r="C60" s="61" t="s">
-        <v>453</v>
-      </c>
-      <c r="D60" s="65" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B126"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="95.7109375" style="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
-        <v>507</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="77" t="s">
-        <v>497</v>
-      </c>
-      <c r="B20" s="79" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="81" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="69"/>
-    </row>
-    <row r="31" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="87" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="88" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="89"/>
-    </row>
-    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="90" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
-    </row>
-    <row r="36" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="91" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="92" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="93"/>
-    </row>
-    <row r="39" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="94" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="69"/>
-    </row>
-    <row r="41" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="82" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="81" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="80"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="81" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="69"/>
-    </row>
-    <row r="46" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="82" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="81" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="69"/>
-    </row>
-    <row r="49" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="82" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="81" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="69"/>
-    </row>
-    <row r="52" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="82" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="81" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="69"/>
-    </row>
-    <row r="55" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="82" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
-    </row>
-    <row r="57" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="87" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="90" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="69"/>
-    </row>
-    <row r="60" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="82" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="81" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="69"/>
-    </row>
-    <row r="63" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="82" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="81" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="69"/>
-    </row>
-    <row r="66" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B66" s="84" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="85" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="86"/>
-    </row>
-    <row r="69" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="85" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="69"/>
-    </row>
-    <row r="71" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B71" s="95" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="96" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="97"/>
-    </row>
-    <row r="74" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B74" s="96" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="69"/>
-    </row>
-    <row r="76" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B76" s="84" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="85" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="85" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="85" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="85" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="85" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="69"/>
-    </row>
-    <row r="83" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B83" s="98" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="99" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="69"/>
-    </row>
-    <row r="86" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B86" s="82" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="81" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="80"/>
-    </row>
-    <row r="89" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="81" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="80"/>
-    </row>
-    <row r="91" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="83" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="69"/>
-    </row>
-    <row r="93" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B93" s="82" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="69"/>
-    </row>
-    <row r="95" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B95" s="82" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="81" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="80"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="81" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="80"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="81" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="81" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B102" s="81" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="69"/>
-    </row>
-    <row r="104" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B104" s="84" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="85" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="69"/>
-    </row>
-    <row r="107" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B107" s="82" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="81" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="69"/>
-    </row>
-    <row r="110" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B110" s="82" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="81" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="80"/>
-    </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B113" s="81" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="69"/>
-    </row>
-    <row r="115" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B115" s="82" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="81" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="69"/>
-    </row>
-    <row r="118" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B118" s="82" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="81" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B126"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -11420,4 +8070,3775 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C25" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>708</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="47.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="141" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C31" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="76" t="s">
+        <v>490</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="113.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="113" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
+        <v>723</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="114" t="s">
+        <v>726</v>
+      </c>
+      <c r="B3" s="58"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="114" t="s">
+        <v>736</v>
+      </c>
+      <c r="B4" s="58"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="114" t="s">
+        <v>727</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="115" t="s">
+        <v>735</v>
+      </c>
+      <c r="B6" s="62"/>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D215"/>
+  <sheetViews>
+    <sheetView topLeftCell="A172" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H169" sqref="H169"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="98.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="23" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="49"/>
+      <c r="C54" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="49"/>
+      <c r="C55" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="49"/>
+      <c r="C56" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="49"/>
+      <c r="C57" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="49"/>
+      <c r="C58" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="49"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="49"/>
+      <c r="C59" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="49"/>
+    </row>
+    <row r="61" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C80" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C82" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="345" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="D92" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D94" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B107" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C116" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D144" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B150" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="C150" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D150" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C151" s="40"/>
+      <c r="D151" s="41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="42"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="41"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B153" s="42"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B154" s="42"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="46"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B155" s="42"/>
+      <c r="C155" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="D155" s="46"/>
+    </row>
+    <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="43"/>
+      <c r="C156" t="s">
+        <v>369</v>
+      </c>
+      <c r="D156" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="36"/>
+      <c r="C163" s="37"/>
+      <c r="D163" s="38"/>
+    </row>
+    <row r="164" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B164" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="C164" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="D164" s="38" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B165" s="39"/>
+      <c r="C165" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="D165" s="41" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B166" s="42"/>
+      <c r="C166" s="70" t="s">
+        <v>488</v>
+      </c>
+      <c r="D166" s="72" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B167" s="42"/>
+      <c r="C167" s="70" t="s">
+        <v>483</v>
+      </c>
+      <c r="D167" s="72" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B168" s="42"/>
+      <c r="C168" s="70"/>
+      <c r="D168" s="72" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B169" s="42"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="72" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="42"/>
+      <c r="C170" s="70" t="s">
+        <v>479</v>
+      </c>
+      <c r="D170" s="72" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B171" s="42"/>
+      <c r="C171" s="71" t="s">
+        <v>481</v>
+      </c>
+      <c r="D171" s="72" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="42"/>
+      <c r="C172" s="70"/>
+      <c r="D172" s="72"/>
+    </row>
+    <row r="173" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="B173" s="42"/>
+      <c r="C173" s="70" t="s">
+        <v>485</v>
+      </c>
+      <c r="D173" s="72" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="43"/>
+      <c r="C174" s="73"/>
+      <c r="D174" s="74"/>
+    </row>
+    <row r="175" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C176" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="D176" s="38"/>
+    </row>
+    <row r="177" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B177" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="C177" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="D177" s="41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="42"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="41"/>
+    </row>
+    <row r="179" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B179" s="42"/>
+      <c r="C179" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="D179" s="41" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="42"/>
+      <c r="C180" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="D180" s="41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B181" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="C181" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="D181" s="41" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="42"/>
+      <c r="C182" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="D182" s="41"/>
+    </row>
+    <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="43"/>
+      <c r="C183" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="D183" s="45"/>
+    </row>
+    <row r="184" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="185" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B185" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C185" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="D185" s="38" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B186" s="42"/>
+      <c r="C186" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D186" s="41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="42"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="41"/>
+    </row>
+    <row r="188" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="43"/>
+      <c r="C188" s="44"/>
+      <c r="D188" s="45"/>
+    </row>
+    <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B190" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="C190" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="D190" s="38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="42"/>
+      <c r="C191" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="D191" s="41"/>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="42"/>
+      <c r="C192" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D192" s="41"/>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="42"/>
+      <c r="C193" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="D193" s="41"/>
+    </row>
+    <row r="194" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="43"/>
+      <c r="C194" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D194" s="45"/>
+    </row>
+    <row r="195" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="36"/>
+      <c r="C196" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="D196" s="38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="42"/>
+      <c r="C197" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="D197" s="41" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="42"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="41"/>
+    </row>
+    <row r="199" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="43"/>
+      <c r="C199" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="D199" s="45" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="C201" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="D201" s="38"/>
+    </row>
+    <row r="202" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B202" s="42"/>
+      <c r="C202" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="D202" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="42"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="41" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="42"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="41"/>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="42"/>
+      <c r="C205" s="40"/>
+      <c r="D205" s="41"/>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="42"/>
+      <c r="C206" s="40"/>
+      <c r="D206" s="41"/>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="42"/>
+      <c r="C207" s="40"/>
+      <c r="D207" s="41"/>
+    </row>
+    <row r="208" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="43"/>
+      <c r="C208" s="44"/>
+      <c r="D208" s="45"/>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C210" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C212" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C213" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C214" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C215" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="102" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="103" t="s">
+        <v>575</v>
+      </c>
+      <c r="C2" s="100">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="103" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" s="100">
+        <v>2</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="103" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="100">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="103" t="s">
+        <v>573</v>
+      </c>
+      <c r="C5" s="100">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="103" t="s">
+        <v>572</v>
+      </c>
+      <c r="C6" s="100">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="103" t="s">
+        <v>571</v>
+      </c>
+      <c r="C7" s="100">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="103" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" s="100"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="104" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="105" t="s">
+        <v>593</v>
+      </c>
+      <c r="B16" s="105" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="106" t="s">
+        <v>595</v>
+      </c>
+      <c r="B17" s="106" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="106" t="s">
+        <v>597</v>
+      </c>
+      <c r="B18" s="106" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="106" t="s">
+        <v>599</v>
+      </c>
+      <c r="B19" s="106" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="106" t="s">
+        <v>601</v>
+      </c>
+      <c r="B20" s="106" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="106" t="s">
+        <v>603</v>
+      </c>
+      <c r="B21" s="106" t="s">
+        <v>604</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D8">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="4" max="4" width="69.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="107"/>
+    </row>
+    <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>627</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E110"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="70.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="51" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" s="58"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="55"/>
+      <c r="C9" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="E10" s="58"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="55"/>
+      <c r="C11" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="55"/>
+      <c r="C12" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>427</v>
+      </c>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="55"/>
+      <c r="C15" s="56" t="s">
+        <v>430</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+    </row>
+    <row r="16" spans="2:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="B16" s="55" t="s">
+        <v>431</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="55" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>443</v>
+      </c>
+      <c r="D55" s="66" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="55"/>
+      <c r="C56" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="D56" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B57" s="55"/>
+      <c r="C57" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="D57" s="58" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="55"/>
+      <c r="C58" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="55"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="64"/>
+    </row>
+    <row r="60" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="59"/>
+      <c r="C60" s="61" t="s">
+        <v>453</v>
+      </c>
+      <c r="D60" s="65" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B101" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="26" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C103" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C107" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="9" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="9" t="s">
+        <v>722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="77" t="s">
+        <v>507</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="77" t="s">
+        <v>497</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="81" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="69"/>
+    </row>
+    <row r="31" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="87" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="88" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="89"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="90" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="69"/>
+    </row>
+    <row r="36" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="91" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="92" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="93"/>
+    </row>
+    <row r="39" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="94" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="69"/>
+    </row>
+    <row r="41" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="82" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="81" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="80"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="81" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="69"/>
+    </row>
+    <row r="46" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="82" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="81" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="69"/>
+    </row>
+    <row r="49" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="82" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="81" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="69"/>
+    </row>
+    <row r="52" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="82" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="81" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="69"/>
+    </row>
+    <row r="55" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="82" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="69"/>
+    </row>
+    <row r="57" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="87" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="90" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="69"/>
+    </row>
+    <row r="60" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="82" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="81" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="69"/>
+    </row>
+    <row r="63" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="82" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="81" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="69"/>
+    </row>
+    <row r="66" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B66" s="84" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="85" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="86"/>
+    </row>
+    <row r="69" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="85" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="69"/>
+    </row>
+    <row r="71" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B71" s="95" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="96" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="97"/>
+    </row>
+    <row r="74" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B74" s="96" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="69"/>
+    </row>
+    <row r="76" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="84" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="85" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="85" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="85" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="85" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="85" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="69"/>
+    </row>
+    <row r="83" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B83" s="98" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="99" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="69"/>
+    </row>
+    <row r="86" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B86" s="82" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="81" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="80"/>
+    </row>
+    <row r="89" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B89" s="81" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="80"/>
+    </row>
+    <row r="91" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="83" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="69"/>
+    </row>
+    <row r="93" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B93" s="82" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="69"/>
+    </row>
+    <row r="95" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B95" s="82" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="81" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="80"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="81" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="80"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="81" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="81" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B102" s="81" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="69"/>
+    </row>
+    <row r="104" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B104" s="84" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="85" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="69"/>
+    </row>
+    <row r="107" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B107" s="82" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="81" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="69"/>
+    </row>
+    <row r="110" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B110" s="82" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="81" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="80"/>
+    </row>
+    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B113" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="69"/>
+    </row>
+    <row r="115" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B115" s="82" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="81" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="69"/>
+    </row>
+    <row r="118" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B118" s="82" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="81" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B126"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7545" tabRatio="686" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7545" tabRatio="686" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Maven" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="740">
   <si>
     <t>Question</t>
   </si>
@@ -5077,9 +5077,6 @@
     <t>git remote</t>
   </si>
   <si>
-    <t xml:space="preserve">shows remote repos that you have </t>
-  </si>
-  <si>
     <t xml:space="preserve">TestNG from command line </t>
   </si>
   <si>
@@ -5214,6 +5211,12 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>shows remote repos that you have locally mapped already</t>
+  </si>
+  <si>
+    <t>git push -u repoName branchName(master)</t>
   </si>
 </sst>
 </file>
@@ -8150,10 +8153,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8368,17 +8371,22 @@
         <v>704</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
         <v>709</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
         <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -9249,7 +9257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -9263,71 +9271,71 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="113" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B1" s="54" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>729</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>723</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="114" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B3" s="58"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="114" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B4" s="58"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="114" t="s">
+        <v>726</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>727</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="115" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B6" s="62"/>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -11153,54 +11161,54 @@
     </row>
     <row r="101" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>711</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C102" s="26" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C103" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C106" s="9" t="s">
         <v>715</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C107" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C108" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C109" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C110" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7545" tabRatio="686" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7545" tabRatio="686" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Maven" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="746">
   <si>
     <t>Question</t>
   </si>
@@ -5218,12 +5218,55 @@
   <si>
     <t>git push -u repoName branchName(master)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Configure System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Configure Global Security
+Configure Credentials
+Manage Plugins</t>
+    </r>
+  </si>
+  <si>
+    <t>Home directory |Environment variables |GitHub Global Pipeline Libraries</t>
+  </si>
+  <si>
+    <t>Email config</t>
+  </si>
+  <si>
+    <t>why maven?</t>
+  </si>
+  <si>
+    <t>* Maven is used to define project structure, dependencies, build, and test management.
+* Using pom.xml(Maven) you can configure dependencies needed for building testing and running code.
+* Maven automatically downloads the necessary files from the repository while building the project.</t>
+  </si>
+  <si>
+    <t>3.3.9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5554,6 +5597,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF545454"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -5836,7 +5885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -6145,6 +6194,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6169,13 +6222,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4295775</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6224,13 +6277,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4314904</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6438445</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>5666920</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>151682</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6262,6 +6315,66 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36234</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>695325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2200275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Java method overriding example of bank"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8427759" y="7743825"/>
+          <a:ext cx="3904451" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6452,7 +6565,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6589,6 +6702,66 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://lh3.googleusercontent.com/-t_kWzspc42c/VRgkiKRM3OI/AAAAAAAABN8/xz389P1JNN8/w644-h472-no/image5.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="990600" y="3771900"/>
+          <a:ext cx="6134100" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6952,7 +7125,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7033,7 +7206,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7076,7 +7249,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7347,7 +7520,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7407,7 +7580,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7450,7 +7623,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7486,66 +7659,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>36234</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>695325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>44960</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2200275</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Java method overriding example of bank"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8427759" y="7743825"/>
-          <a:ext cx="3904451" cy="1504950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7840,20 +7953,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="117" t="s">
+        <v>745</v>
+      </c>
       <c r="B1" s="108" t="s">
         <v>637</v>
       </c>
@@ -7888,52 +8004,60 @@
         <v>643</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B8" s="112" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>645</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B10" s="111" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="111" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="111" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="111" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="111" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="112" t="s">
+    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="112" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="112" t="s">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="112" t="s">
         <v>649</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>650</v>
-      </c>
-      <c r="C15" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>650</v>
+      </c>
+      <c r="C16" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>651</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>654</v>
       </c>
     </row>
@@ -8155,8 +8279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9171,7 +9295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
@@ -9255,10 +9379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9294,11 +9418,16 @@
       </c>
       <c r="B3" s="58"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="116" t="s">
         <v>735</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="58" t="s">
+        <v>740</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="114" t="s">
@@ -9338,8 +9467,18 @@
         <v>736</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7545" tabRatio="686" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7545" tabRatio="686" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Maven" sheetId="16" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="String Class" sheetId="5" r:id="rId14"/>
     <sheet name="regex" sheetId="6" r:id="rId15"/>
     <sheet name="Java I O" sheetId="8" r:id="rId16"/>
+    <sheet name="topics" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="762">
   <si>
     <t>Question</t>
   </si>
@@ -5260,6 +5261,54 @@
   </si>
   <si>
     <t>3.3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Trigger a testng project from jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Java design patterns:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Take examples from selenium framework design</t>
+  </si>
+  <si>
+    <t>Maven &amp; its life cycle</t>
+  </si>
+  <si>
+    <t>Read database connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read page object model </t>
+  </si>
+  <si>
+    <t>Read about BDD</t>
+  </si>
+  <si>
+    <t>Read dbms &amp; queries related questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Selenium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * Mouse clicks \ drag drop \ scroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * TestNG annotations questions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String class in java </t>
   </si>
 </sst>
 </file>
@@ -9295,7 +9344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
@@ -9374,6 +9423,104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>761</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7545" tabRatio="686" firstSheet="7" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7545" tabRatio="686" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Maven" sheetId="16" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="Java I O" sheetId="8" r:id="rId16"/>
     <sheet name="topics" sheetId="20" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="767">
   <si>
     <t>Question</t>
   </si>
@@ -5310,12 +5310,27 @@
   <si>
     <t xml:space="preserve">String class in java </t>
   </si>
+  <si>
+    <t>git clone</t>
+  </si>
+  <si>
+    <t>git clone is to fetch your repositories from the remote git server</t>
+  </si>
+  <si>
+    <t>git checkout is to checkout your desired status of your repository (like branches or particular files). E.g., you are currently on master branch and you want to switch into develop branch</t>
+  </si>
+  <si>
+    <t>git checkout .</t>
+  </si>
+  <si>
+    <t>checkout the current working directory</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="49" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6288,10 +6303,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6311,7 +6326,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6343,7 +6358,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6386,10 +6401,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6409,7 +6424,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6446,10 +6461,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6469,7 +6484,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6501,10 +6516,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6524,7 +6539,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6556,7 +6571,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6594,7 +6609,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6637,10 +6652,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6660,7 +6675,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6692,7 +6707,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6730,7 +6745,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6773,10 +6788,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6796,7 +6811,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6833,7 +6848,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6871,10 +6886,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6894,7 +6909,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6926,7 +6941,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6964,7 +6979,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7002,7 +7017,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7040,7 +7055,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7078,7 +7093,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7116,7 +7131,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7154,7 +7169,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7197,7 +7212,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7235,7 +7250,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7278,7 +7293,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7321,7 +7336,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7359,7 +7374,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7397,7 +7412,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7435,7 +7450,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7473,7 +7488,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7511,7 +7526,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7549,7 +7564,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7592,10 +7607,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7615,7 +7630,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7652,7 +7667,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7695,7 +7710,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7758,7 +7773,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7790,10 +7805,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7825,7 +7839,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8001,21 +8014,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="100.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="117" t="s">
         <v>745</v>
       </c>
@@ -8023,37 +8036,37 @@
         <v>637</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="B2" s="109" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="B3" s="109" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" s="109" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5" s="109" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" s="109" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
       <c r="B7" s="110" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="45">
       <c r="A8" t="s">
         <v>743</v>
       </c>
@@ -8061,7 +8074,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>645</v>
       </c>
@@ -8069,27 +8082,27 @@
         <v>644</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" s="111" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" s="111" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="75">
       <c r="B14" s="112" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="30">
       <c r="B15" s="112" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>650</v>
       </c>
@@ -8097,7 +8110,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="B17" t="s">
         <v>651</v>
       </c>
@@ -8105,7 +8118,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>654</v>
       </c>
@@ -8118,14 +8131,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -8135,17 +8148,17 @@
     <col min="6" max="6" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="C1" s="32" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="C2" s="33" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>307</v>
       </c>
@@ -8153,7 +8166,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>304</v>
       </c>
@@ -8161,7 +8174,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>312</v>
       </c>
@@ -8169,7 +8182,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>311</v>
       </c>
@@ -8177,7 +8190,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>313</v>
       </c>
@@ -8185,7 +8198,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>314</v>
       </c>
@@ -8193,7 +8206,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
       <c r="B9" t="s">
         <v>314</v>
       </c>
@@ -8201,11 +8214,11 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="C10" s="35"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -8213,33 +8226,33 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="C14" s="33" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="C15" s="33" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="C16" s="33" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3">
       <c r="C17" s="33"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3">
       <c r="C18" s="33" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3">
       <c r="C19" s="33"/>
     </row>
-    <row r="20" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" ht="15.75" thickBot="1">
       <c r="C20" s="34"/>
     </row>
   </sheetData>
@@ -8249,20 +8262,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -8270,7 +8283,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -8278,42 +8291,42 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="60">
       <c r="A10" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -8325,23 +8338,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="55.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.5703125" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>666</v>
       </c>
@@ -8349,7 +8363,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
         <v>669</v>
       </c>
@@ -8357,7 +8371,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
         <v>677</v>
       </c>
@@ -8368,7 +8382,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="9" t="s">
         <v>699</v>
       </c>
@@ -8379,7 +8393,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
         <v>678</v>
       </c>
@@ -8390,7 +8404,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
         <v>681</v>
       </c>
@@ -8398,7 +8412,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
         <v>686</v>
       </c>
@@ -8406,7 +8420,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
         <v>688</v>
       </c>
@@ -8417,12 +8431,12 @@
         <v>672</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
         <v>695</v>
       </c>
@@ -8433,12 +8447,12 @@
         <v>683</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
         <v>703</v>
       </c>
@@ -8446,10 +8460,13 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="90">
       <c r="A13" s="9" t="s">
         <v>707</v>
       </c>
+      <c r="B13" s="9" t="s">
+        <v>764</v>
+      </c>
       <c r="C13" s="9" t="s">
         <v>697</v>
       </c>
@@ -8460,12 +8477,18 @@
         <v>676</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="60">
+      <c r="A14" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>763</v>
+      </c>
       <c r="C14" s="9" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="105">
       <c r="C15" s="9" t="s">
         <v>678</v>
       </c>
@@ -8476,12 +8499,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30">
       <c r="C16" s="9" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="45">
       <c r="C17" s="9" t="s">
         <v>681</v>
       </c>
@@ -8489,7 +8512,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" s="9" t="s">
         <v>686</v>
       </c>
@@ -8497,7 +8520,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19" s="9" t="s">
         <v>688</v>
       </c>
@@ -8505,12 +8528,12 @@
         <v>690</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="C20" s="9" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5">
       <c r="C22" s="9" t="s">
         <v>693</v>
       </c>
@@ -8518,12 +8541,12 @@
         <v>694</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5">
       <c r="C23" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="45">
       <c r="C24" s="9" t="s">
         <v>705</v>
       </c>
@@ -8531,7 +8554,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="60">
       <c r="C25" s="9" t="s">
         <v>701</v>
       </c>
@@ -8539,12 +8562,12 @@
         <v>702</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5">
       <c r="C26" s="9" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="27" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" ht="30">
       <c r="C27" s="9" t="s">
         <v>709</v>
       </c>
@@ -8552,14 +8575,22 @@
         <v>738</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" ht="30">
       <c r="C28" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5">
       <c r="C29" s="9" t="s">
         <v>739</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -8569,14 +8600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="2" width="47.5703125" style="9" bestFit="1" customWidth="1"/>
@@ -8584,7 +8615,7 @@
     <col min="4" max="4" width="42.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
         <v>158</v>
       </c>
@@ -8596,7 +8627,7 @@
       </c>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="13" customFormat="1" ht="75">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
         <v>191</v>
@@ -8606,7 +8637,7 @@
       </c>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -8620,7 +8651,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -8632,7 +8663,7 @@
       </c>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -8646,7 +8677,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="255">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -8658,7 +8689,7 @@
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="120">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -8670,7 +8701,7 @@
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="120">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -8682,7 +8713,7 @@
       </c>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="45">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -8694,7 +8725,7 @@
       </c>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="409.5">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -8706,7 +8737,7 @@
       </c>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="60">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -8718,7 +8749,7 @@
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" s="14"/>
       <c r="B12" s="14" t="s">
         <v>176</v>
@@ -8728,7 +8759,7 @@
       </c>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
         <v>178</v>
@@ -8738,7 +8769,7 @@
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="255">
       <c r="A14" s="14"/>
       <c r="B14" s="14" t="s">
         <v>180</v>
@@ -8750,7 +8781,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
@@ -8758,7 +8789,7 @@
       </c>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="60">
       <c r="A16" s="14"/>
       <c r="B16" s="14" t="s">
         <v>184</v>
@@ -8768,7 +8799,7 @@
       </c>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30">
       <c r="A17" s="14"/>
       <c r="B17" s="14" t="s">
         <v>181</v>
@@ -8778,7 +8809,7 @@
       </c>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="14"/>
       <c r="B18" s="14" t="s">
         <v>186</v>
@@ -8788,7 +8819,7 @@
       </c>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="14"/>
       <c r="B19" s="14" t="s">
         <v>188</v>
@@ -8796,7 +8827,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="390">
       <c r="A20" s="14"/>
       <c r="B20" s="10" t="s">
         <v>190</v>
@@ -8806,7 +8837,7 @@
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="14"/>
       <c r="B21" s="14" t="s">
         <v>194</v>
@@ -8814,7 +8845,7 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="14"/>
       <c r="B22" s="14" t="s">
         <v>195</v>
@@ -8822,7 +8853,7 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30">
       <c r="A23" s="14"/>
       <c r="B23" s="11" t="s">
         <v>198</v>
@@ -8832,7 +8863,7 @@
       </c>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="330">
       <c r="A24" s="14"/>
       <c r="B24" s="14" t="s">
         <v>199</v>
@@ -8842,7 +8873,7 @@
       </c>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" ht="141" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="153.75">
       <c r="A25" s="14"/>
       <c r="B25" s="11" t="s">
         <v>201</v>
@@ -8852,7 +8883,7 @@
       </c>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="46.5">
       <c r="A26" s="14"/>
       <c r="B26" s="20" t="s">
         <v>205</v>
@@ -8862,7 +8893,7 @@
       </c>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="47.25" thickBot="1">
       <c r="A27" s="14"/>
       <c r="B27" s="20" t="s">
         <v>206</v>
@@ -8872,17 +8903,17 @@
       </c>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="30.75" thickBot="1">
       <c r="B28" s="21" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="60.75" thickBot="1">
       <c r="B29" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30">
       <c r="B30" s="10" t="s">
         <v>209</v>
       </c>
@@ -8890,12 +8921,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="45">
       <c r="C31" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="47.25">
       <c r="B33" s="76" t="s">
         <v>490</v>
       </c>
@@ -8903,17 +8934,17 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="C34" s="9" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="30">
       <c r="C35" s="9" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" ht="210">
       <c r="B36" s="9" t="s">
         <v>493</v>
       </c>
@@ -8921,12 +8952,12 @@
         <v>494</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3">
       <c r="B38" s="9" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40" s="14" t="s">
         <v>606</v>
       </c>
@@ -8934,57 +8965,57 @@
         <v>607</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="C41" s="14" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="C42" s="14" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3">
       <c r="C43" s="14" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="30">
       <c r="C44" s="14" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3">
       <c r="C45" s="14" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3">
       <c r="C46" s="14" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3">
       <c r="C47" s="14" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3">
       <c r="C48" s="14" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="C49" s="14" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="C50" s="14" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" s="9" t="s">
         <v>630</v>
       </c>
@@ -8992,12 +9023,12 @@
         <v>631</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="C53" s="9" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" s="9" t="s">
         <v>656</v>
       </c>
@@ -9010,28 +9041,28 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="72.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -9039,12 +9070,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="45">
       <c r="A5" s="23" t="s">
         <v>217</v>
       </c>
@@ -9052,7 +9083,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="24" t="s">
         <v>219</v>
       </c>
@@ -9060,7 +9091,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="105">
       <c r="A7" s="23" t="s">
         <v>221</v>
       </c>
@@ -9068,12 +9099,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="27" t="s">
         <v>224</v>
       </c>
@@ -9081,22 +9112,22 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="60">
       <c r="A13" s="9" t="s">
         <v>229</v>
       </c>
@@ -9104,7 +9135,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="90">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -9112,12 +9143,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="90">
       <c r="A16" t="s">
         <v>233</v>
       </c>
@@ -9125,12 +9156,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="60">
       <c r="A18" s="26" t="s">
         <v>236</v>
       </c>
@@ -9138,7 +9169,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="25" t="s">
         <v>238</v>
       </c>
@@ -9146,7 +9177,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="45">
       <c r="A20" s="9" t="s">
         <v>240</v>
       </c>
@@ -9154,12 +9185,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="30">
       <c r="A22" s="9" t="s">
         <v>263</v>
       </c>
@@ -9167,27 +9198,27 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="30">
       <c r="A23" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="30">
       <c r="A24" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="30">
       <c r="B25" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>243</v>
       </c>
@@ -9195,7 +9226,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>244</v>
       </c>
@@ -9203,7 +9234,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="30">
       <c r="A33" t="s">
         <v>255</v>
       </c>
@@ -9211,7 +9242,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>256</v>
       </c>
@@ -9219,7 +9250,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>257</v>
       </c>
@@ -9227,7 +9258,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>259</v>
       </c>
@@ -9235,7 +9266,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>251</v>
       </c>
@@ -9243,7 +9274,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="30">
       <c r="A38" s="29" t="s">
         <v>250</v>
       </c>
@@ -9251,52 +9282,52 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>495</v>
       </c>
@@ -9309,25 +9340,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="75">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -9341,30 +9372,30 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="113.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="90">
       <c r="A3" s="20" t="s">
         <v>287</v>
       </c>
@@ -9372,42 +9403,42 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30">
       <c r="B4" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" s="31" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="31" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" s="31" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="31" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="31" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="40.5">
       <c r="A11" s="11" t="s">
         <v>296</v>
       </c>
@@ -9415,7 +9446,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="20.25">
       <c r="A12" s="11" t="s">
         <v>298</v>
       </c>
@@ -9427,94 +9458,94 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>761</v>
       </c>
@@ -9525,14 +9556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.85546875" style="9" customWidth="1"/>
@@ -9540,7 +9571,7 @@
     <col min="4" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="60">
       <c r="A1" s="113" t="s">
         <v>724</v>
       </c>
@@ -9551,7 +9582,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="114" t="s">
         <v>722</v>
       </c>
@@ -9559,13 +9590,13 @@
         <v>723</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="114" t="s">
         <v>725</v>
       </c>
       <c r="B3" s="58"/>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="60">
       <c r="A4" s="116" t="s">
         <v>735</v>
       </c>
@@ -9576,7 +9607,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="114" t="s">
         <v>726</v>
       </c>
@@ -9584,13 +9615,13 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="115" t="s">
         <v>734</v>
       </c>
       <c r="B6" s="62"/>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="45">
       <c r="A7" s="9" t="s">
         <v>730</v>
       </c>
@@ -9598,7 +9629,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="9" t="s">
         <v>732</v>
       </c>
@@ -9606,7 +9637,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
         <v>737</v>
       </c>
@@ -9614,12 +9645,12 @@
         <v>736</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16"/>
     </row>
   </sheetData>
@@ -9630,14 +9661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView topLeftCell="A172" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
@@ -9646,7 +9677,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9660,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
@@ -9668,37 +9699,37 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="D3" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="D6" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
@@ -9706,12 +9737,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="D10" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="C11" s="2" t="s">
         <v>100</v>
       </c>
@@ -9719,7 +9750,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30">
       <c r="C12" s="2" t="s">
         <v>94</v>
       </c>
@@ -9727,7 +9758,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30">
       <c r="C13" s="2" t="s">
         <v>117</v>
       </c>
@@ -9735,7 +9766,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30">
       <c r="C14" s="2" t="s">
         <v>94</v>
       </c>
@@ -9743,10 +9774,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30">
       <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
@@ -9755,7 +9786,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="195">
       <c r="B17" s="2" t="s">
         <v>81</v>
       </c>
@@ -9764,16 +9795,16 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="D20" s="3"/>
     </row>
-    <row r="23" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="75">
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
@@ -9784,7 +9815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30">
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
@@ -9792,7 +9823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
@@ -9800,7 +9831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="75">
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
@@ -9811,7 +9842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
@@ -9819,102 +9850,102 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4">
       <c r="D33" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4">
       <c r="D34" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4">
       <c r="D35" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4">
       <c r="D36" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4">
       <c r="D37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4">
       <c r="D38" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4">
       <c r="D39" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4">
       <c r="D40" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4">
       <c r="D41" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4">
       <c r="D42" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4">
       <c r="D43" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4">
       <c r="D44" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4">
       <c r="D45" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4">
       <c r="D46" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4">
       <c r="C47" s="2" t="s">
         <v>119</v>
       </c>
@@ -9922,27 +9953,27 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4">
       <c r="D48" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4">
       <c r="D49" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4">
       <c r="D50" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" ht="30">
       <c r="B51" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4">
       <c r="C52" s="2" t="s">
         <v>389</v>
       </c>
@@ -9950,7 +9981,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4">
       <c r="B53" s="49" t="s">
         <v>23</v>
       </c>
@@ -9961,7 +9992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4">
       <c r="B54" s="49"/>
       <c r="C54" s="49" t="s">
         <v>27</v>
@@ -9970,7 +10001,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4">
       <c r="B55" s="49"/>
       <c r="C55" s="49" t="s">
         <v>28</v>
@@ -9979,7 +10010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4">
       <c r="B56" s="49"/>
       <c r="C56" s="49" t="s">
         <v>29</v>
@@ -9988,7 +10019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4">
       <c r="B57" s="49"/>
       <c r="C57" s="49" t="s">
         <v>31</v>
@@ -9997,21 +10028,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4">
       <c r="B58" s="49"/>
       <c r="C58" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="49"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4">
       <c r="B59" s="49"/>
       <c r="C59" s="49" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="49"/>
     </row>
-    <row r="61" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" ht="30">
       <c r="B61" s="2" t="s">
         <v>41</v>
       </c>
@@ -10022,7 +10053,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" ht="30">
       <c r="C62" s="2" t="s">
         <v>58</v>
       </c>
@@ -10030,12 +10061,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4">
       <c r="B67" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" ht="45">
       <c r="B73" s="4" t="s">
         <v>44</v>
       </c>
@@ -10046,7 +10077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" ht="60">
       <c r="C74" s="2" t="s">
         <v>46</v>
       </c>
@@ -10054,7 +10085,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" ht="210">
       <c r="C75" s="2" t="s">
         <v>47</v>
       </c>
@@ -10062,12 +10093,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4">
       <c r="C76" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" ht="30">
       <c r="C77" s="2" t="s">
         <v>73</v>
       </c>
@@ -10075,7 +10106,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" ht="30">
       <c r="C78" s="2" t="s">
         <v>75</v>
       </c>
@@ -10083,7 +10114,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4">
       <c r="C79" s="6" t="s">
         <v>68</v>
       </c>
@@ -10091,7 +10122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" ht="45">
       <c r="C80" s="6" t="s">
         <v>69</v>
       </c>
@@ -10099,7 +10130,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4">
       <c r="C81" s="6" t="s">
         <v>70</v>
       </c>
@@ -10107,7 +10138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" ht="75">
       <c r="C82" s="6" t="s">
         <v>71</v>
       </c>
@@ -10115,7 +10146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4">
       <c r="C83" s="6" t="s">
         <v>72</v>
       </c>
@@ -10123,7 +10154,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4">
       <c r="C84" s="6" t="s">
         <v>79</v>
       </c>
@@ -10131,12 +10162,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4">
       <c r="B85" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" ht="345">
       <c r="B89" s="4" t="s">
         <v>43</v>
       </c>
@@ -10147,7 +10178,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" ht="60">
       <c r="B91" s="8" t="s">
         <v>89</v>
       </c>
@@ -10155,32 +10186,32 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" ht="90">
       <c r="D92" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4">
       <c r="D93" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" ht="45">
       <c r="D94" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4">
       <c r="D95" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4">
       <c r="D96" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" ht="105">
       <c r="B102" s="8" t="s">
         <v>105</v>
       </c>
@@ -10191,7 +10222,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4">
       <c r="C103" s="2" t="s">
         <v>112</v>
       </c>
@@ -10199,7 +10230,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4">
       <c r="C104" s="2" t="s">
         <v>112</v>
       </c>
@@ -10207,7 +10238,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4">
       <c r="B105" s="2" t="s">
         <v>102</v>
       </c>
@@ -10215,7 +10246,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4">
       <c r="C106" s="2" t="s">
         <v>122</v>
       </c>
@@ -10223,7 +10254,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" ht="75">
       <c r="B107" s="8" t="s">
         <v>113</v>
       </c>
@@ -10234,7 +10265,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="2:4" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" ht="208.5" customHeight="1">
       <c r="B109" s="2" t="s">
         <v>126</v>
       </c>
@@ -10245,7 +10276,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4">
       <c r="B111" s="2" t="s">
         <v>127</v>
       </c>
@@ -10253,7 +10284,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" ht="30">
       <c r="C112" s="2" t="s">
         <v>129</v>
       </c>
@@ -10261,22 +10292,22 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4">
       <c r="C113" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4">
       <c r="C114" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4">
       <c r="C115" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" ht="30">
       <c r="C116" s="2" t="s">
         <v>132</v>
       </c>
@@ -10284,42 +10315,42 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4">
       <c r="C117" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4">
       <c r="C118" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4">
       <c r="C119" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4">
       <c r="C120" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4">
       <c r="C121" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4">
       <c r="B123" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4">
       <c r="B124" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4">
       <c r="B126" s="2" t="s">
         <v>316</v>
       </c>
@@ -10330,7 +10361,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4">
       <c r="C127" s="2" t="s">
         <v>320</v>
       </c>
@@ -10338,12 +10369,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4">
       <c r="D128" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" ht="30">
       <c r="B130" s="2" t="s">
         <v>335</v>
       </c>
@@ -10354,7 +10385,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4">
       <c r="C132" s="2" t="s">
         <v>338</v>
       </c>
@@ -10362,7 +10393,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4">
       <c r="C133" s="2" t="s">
         <v>337</v>
       </c>
@@ -10370,7 +10401,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4">
       <c r="C134" s="2" t="s">
         <v>339</v>
       </c>
@@ -10378,12 +10409,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4">
       <c r="D135" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4">
       <c r="C136" s="2" t="s">
         <v>340</v>
       </c>
@@ -10391,7 +10422,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="141" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" ht="105">
       <c r="B141" s="2" t="s">
         <v>334</v>
       </c>
@@ -10402,7 +10433,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4">
       <c r="C142" s="2" t="s">
         <v>326</v>
       </c>
@@ -10410,17 +10441,17 @@
         <v>324</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4">
       <c r="D143" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="144" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" ht="45">
       <c r="D144" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4">
       <c r="C147" s="2" t="s">
         <v>332</v>
       </c>
@@ -10428,7 +10459,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4">
       <c r="C148" s="2" t="s">
         <v>327</v>
       </c>
@@ -10436,8 +10467,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="150" spans="2:4" ht="30">
       <c r="B150" s="36" t="s">
         <v>347</v>
       </c>
@@ -10448,7 +10479,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4">
       <c r="B151" s="39" t="s">
         <v>349</v>
       </c>
@@ -10457,31 +10488,31 @@
         <v>351</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4">
       <c r="B152" s="42"/>
       <c r="C152" s="40"/>
       <c r="D152" s="41"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:4">
       <c r="B153" s="42"/>
       <c r="C153" s="40"/>
       <c r="D153" s="46" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:4">
       <c r="B154" s="42"/>
       <c r="C154" s="40"/>
       <c r="D154" s="46"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:4">
       <c r="B155" s="42"/>
       <c r="C155" s="40" t="s">
         <v>370</v>
       </c>
       <c r="D155" s="46"/>
     </row>
-    <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:4" ht="15.75" thickBot="1">
       <c r="B156" s="43"/>
       <c r="C156" t="s">
         <v>369</v>
@@ -10490,7 +10521,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="158" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" ht="30">
       <c r="B158" s="2" t="s">
         <v>352</v>
       </c>
@@ -10501,23 +10532,23 @@
         <v>363</v>
       </c>
     </row>
-    <row r="160" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" ht="45">
       <c r="B160" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4">
       <c r="D161" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="162" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="163" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="163" spans="2:4" ht="15.75" thickBot="1">
       <c r="B163" s="36"/>
       <c r="C163" s="37"/>
       <c r="D163" s="38"/>
     </row>
-    <row r="164" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" ht="30">
       <c r="B164" s="68" t="s">
         <v>366</v>
       </c>
@@ -10528,7 +10559,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="165" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" ht="30">
       <c r="B165" s="39"/>
       <c r="C165" s="40" t="s">
         <v>486</v>
@@ -10537,7 +10568,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="166" spans="2:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" ht="51">
       <c r="B166" s="42"/>
       <c r="C166" s="70" t="s">
         <v>488</v>
@@ -10546,7 +10577,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="167" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" ht="30">
       <c r="B167" s="42"/>
       <c r="C167" s="70" t="s">
         <v>483</v>
@@ -10555,21 +10586,21 @@
         <v>478</v>
       </c>
     </row>
-    <row r="168" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" ht="75">
       <c r="B168" s="42"/>
       <c r="C168" s="70"/>
       <c r="D168" s="72" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="169" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" ht="45">
       <c r="B169" s="42"/>
       <c r="C169" s="70"/>
       <c r="D169" s="72" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4">
       <c r="B170" s="42"/>
       <c r="C170" s="70" t="s">
         <v>479</v>
@@ -10578,7 +10609,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="171" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" ht="18">
       <c r="B171" s="42"/>
       <c r="C171" s="71" t="s">
         <v>481</v>
@@ -10587,12 +10618,12 @@
         <v>482</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4">
       <c r="B172" s="42"/>
       <c r="C172" s="70"/>
       <c r="D172" s="72"/>
     </row>
-    <row r="173" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" ht="120">
       <c r="B173" s="42"/>
       <c r="C173" s="70" t="s">
         <v>485</v>
@@ -10601,13 +10632,13 @@
         <v>487</v>
       </c>
     </row>
-    <row r="174" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" ht="15.75" thickBot="1">
       <c r="B174" s="43"/>
       <c r="C174" s="73"/>
       <c r="D174" s="74"/>
     </row>
-    <row r="175" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="176" spans="2:4">
       <c r="B176" s="36" t="s">
         <v>373</v>
       </c>
@@ -10616,7 +10647,7 @@
       </c>
       <c r="D176" s="38"/>
     </row>
-    <row r="177" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" ht="45">
       <c r="B177" s="42" t="s">
         <v>380</v>
       </c>
@@ -10627,12 +10658,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4">
       <c r="B178" s="42"/>
       <c r="C178" s="40"/>
       <c r="D178" s="41"/>
     </row>
-    <row r="179" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" ht="45">
       <c r="B179" s="42"/>
       <c r="C179" s="40" t="s">
         <v>439</v>
@@ -10641,7 +10672,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4">
       <c r="B180" s="42"/>
       <c r="C180" s="40" t="s">
         <v>374</v>
@@ -10650,7 +10681,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="181" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" ht="105">
       <c r="B181" s="42" t="s">
         <v>379</v>
       </c>
@@ -10661,22 +10692,22 @@
         <v>437</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4">
       <c r="B182" s="42"/>
       <c r="C182" s="40" t="s">
         <v>438</v>
       </c>
       <c r="D182" s="41"/>
     </row>
-    <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:4" ht="15.75" thickBot="1">
       <c r="B183" s="43"/>
       <c r="C183" s="44" t="s">
         <v>440</v>
       </c>
       <c r="D183" s="45"/>
     </row>
-    <row r="184" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="185" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="185" spans="2:4" ht="60">
       <c r="B185" s="36" t="s">
         <v>383</v>
       </c>
@@ -10687,7 +10718,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="186" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" ht="105">
       <c r="B186" s="42"/>
       <c r="C186" s="40" t="s">
         <v>385</v>
@@ -10696,18 +10727,18 @@
         <v>386</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4">
       <c r="B187" s="42"/>
       <c r="C187" s="40"/>
       <c r="D187" s="41"/>
     </row>
-    <row r="188" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:4" ht="15.75" thickBot="1">
       <c r="B188" s="43"/>
       <c r="C188" s="44"/>
       <c r="D188" s="45"/>
     </row>
-    <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="190" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="190" spans="2:4" ht="30">
       <c r="B190" s="36" t="s">
         <v>394</v>
       </c>
@@ -10718,36 +10749,36 @@
         <v>396</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4">
       <c r="B191" s="42"/>
       <c r="C191" s="40" t="s">
         <v>391</v>
       </c>
       <c r="D191" s="41"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4">
       <c r="B192" s="42"/>
       <c r="C192" s="40" t="s">
         <v>392</v>
       </c>
       <c r="D192" s="41"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4">
       <c r="B193" s="42"/>
       <c r="C193" s="40" t="s">
         <v>393</v>
       </c>
       <c r="D193" s="41"/>
     </row>
-    <row r="194" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" ht="15.75" thickBot="1">
       <c r="B194" s="43"/>
       <c r="C194" s="44" t="s">
         <v>390</v>
       </c>
       <c r="D194" s="45"/>
     </row>
-    <row r="195" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="196" spans="2:4">
       <c r="B196" s="36"/>
       <c r="C196" s="37" t="s">
         <v>449</v>
@@ -10756,7 +10787,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4">
       <c r="B197" s="42"/>
       <c r="C197" s="40" t="s">
         <v>450</v>
@@ -10765,12 +10796,12 @@
         <v>451</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4">
       <c r="B198" s="42"/>
       <c r="C198" s="40"/>
       <c r="D198" s="41"/>
     </row>
-    <row r="199" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" ht="45.75" thickBot="1">
       <c r="B199" s="43"/>
       <c r="C199" s="44" t="s">
         <v>468</v>
@@ -10779,8 +10810,8 @@
         <v>469</v>
       </c>
     </row>
-    <row r="200" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="201" spans="2:4">
       <c r="B201" s="68" t="s">
         <v>470</v>
       </c>
@@ -10789,7 +10820,7 @@
       </c>
       <c r="D201" s="38"/>
     </row>
-    <row r="202" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4" ht="45">
       <c r="B202" s="42"/>
       <c r="C202" s="40" t="s">
         <v>472</v>
@@ -10798,44 +10829,44 @@
         <v>473</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4">
       <c r="B203" s="42"/>
       <c r="C203" s="40"/>
       <c r="D203" s="41" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4">
       <c r="B204" s="42"/>
       <c r="C204" s="40"/>
       <c r="D204" s="41"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4">
       <c r="B205" s="42"/>
       <c r="C205" s="40"/>
       <c r="D205" s="41"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4">
       <c r="B206" s="42"/>
       <c r="C206" s="40"/>
       <c r="D206" s="41"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4">
       <c r="B207" s="42"/>
       <c r="C207" s="40"/>
       <c r="D207" s="41"/>
     </row>
-    <row r="208" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" ht="15.75" thickBot="1">
       <c r="B208" s="43"/>
       <c r="C208" s="44"/>
       <c r="D208" s="45"/>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:4">
       <c r="C210" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="212" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:4" ht="45">
       <c r="C212" s="2" t="s">
         <v>565</v>
       </c>
@@ -10843,17 +10874,17 @@
         <v>566</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:4">
       <c r="C213" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:4">
       <c r="C214" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:4">
       <c r="C215" s="2" t="s">
         <v>569</v>
       </c>
@@ -10866,14 +10897,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" style="9" customWidth="1"/>
@@ -10881,7 +10912,7 @@
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="102" t="s">
         <v>570</v>
       </c>
@@ -10890,7 +10921,7 @@
       </c>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="103" t="s">
         <v>575</v>
       </c>
@@ -10901,7 +10932,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="B3" s="103" t="s">
         <v>574</v>
       </c>
@@ -10912,7 +10943,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" s="103" t="s">
         <v>583</v>
       </c>
@@ -10923,7 +10954,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" s="103" t="s">
         <v>573</v>
       </c>
@@ -10934,7 +10965,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6" s="103" t="s">
         <v>572</v>
       </c>
@@ -10945,7 +10976,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" s="103" t="s">
         <v>571</v>
       </c>
@@ -10956,31 +10987,31 @@
         <v>577</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" s="103" t="s">
         <v>592</v>
       </c>
       <c r="C8" s="100"/>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="45">
       <c r="B9" s="104" t="s">
         <v>584</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30">
       <c r="B10" s="9" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="75">
       <c r="B11" s="9" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="9" t="s">
         <v>587</v>
       </c>
@@ -10988,7 +11019,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="75">
       <c r="A13" s="9" t="s">
         <v>589</v>
       </c>
@@ -10996,13 +11027,13 @@
         <v>590</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
       <c r="A16" s="105" t="s">
         <v>593</v>
       </c>
@@ -11010,7 +11041,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="43.5" thickBot="1">
       <c r="A17" s="106" t="s">
         <v>595</v>
       </c>
@@ -11018,7 +11049,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="29.25" thickBot="1">
       <c r="A18" s="106" t="s">
         <v>597</v>
       </c>
@@ -11026,7 +11057,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="29.25" thickBot="1">
       <c r="A19" s="106" t="s">
         <v>599</v>
       </c>
@@ -11034,7 +11065,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="72" thickBot="1">
       <c r="A20" s="106" t="s">
         <v>601</v>
       </c>
@@ -11042,7 +11073,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="72" thickBot="1">
       <c r="A21" s="106" t="s">
         <v>603</v>
       </c>
@@ -11061,7 +11092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11069,7 +11100,7 @@
       <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="68.140625" style="9" customWidth="1"/>
@@ -11077,13 +11108,13 @@
     <col min="4" max="4" width="69.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="67" customFormat="1">
       <c r="A1" s="67" t="s">
         <v>466</v>
       </c>
       <c r="B1" s="107"/>
     </row>
-    <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="210">
       <c r="A2" t="s">
         <v>465</v>
       </c>
@@ -11097,7 +11128,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>619</v>
       </c>
@@ -11105,22 +11136,22 @@
         <v>620</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" s="9" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6" s="9" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>628</v>
       </c>
@@ -11128,17 +11159,17 @@
         <v>624</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" s="9" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" s="9" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45">
       <c r="B12" s="9" t="s">
         <v>627</v>
       </c>
@@ -11151,14 +11182,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E110"/>
   <sheetViews>
     <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="9" customWidth="1"/>
@@ -11167,7 +11198,7 @@
     <col min="5" max="5" width="45.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5">
       <c r="B1" s="9" t="s">
         <v>399</v>
       </c>
@@ -11178,7 +11209,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="30">
       <c r="B2" s="9" t="s">
         <v>400</v>
       </c>
@@ -11189,8 +11220,8 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:5">
       <c r="B4" s="51" t="s">
         <v>403</v>
       </c>
@@ -11202,7 +11233,7 @@
       </c>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>413</v>
@@ -11212,7 +11243,7 @@
       </c>
       <c r="E5" s="58"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="30">
       <c r="B6" s="55"/>
       <c r="C6" s="56" t="s">
         <v>415</v>
@@ -11222,7 +11253,7 @@
       </c>
       <c r="E6" s="58"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="30">
       <c r="B7" s="55"/>
       <c r="C7" s="56" t="s">
         <v>416</v>
@@ -11232,7 +11263,7 @@
       </c>
       <c r="E7" s="58"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="55"/>
       <c r="C8" s="56" t="s">
         <v>417</v>
@@ -11242,7 +11273,7 @@
       </c>
       <c r="E8" s="58"/>
     </row>
-    <row r="9" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="90">
       <c r="B9" s="55"/>
       <c r="C9" s="56" t="s">
         <v>418</v>
@@ -11254,7 +11285,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="60">
       <c r="B10" s="55"/>
       <c r="C10" s="56" t="s">
         <v>424</v>
@@ -11264,7 +11295,7 @@
       </c>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" s="55"/>
       <c r="C11" s="56" t="s">
         <v>424</v>
@@ -11272,7 +11303,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12" s="55"/>
       <c r="C12" s="56" t="s">
         <v>426</v>
@@ -11282,13 +11313,13 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" s="55"/>
       <c r="C13" s="56"/>
       <c r="D13" s="57"/>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="60">
       <c r="B14" s="55" t="s">
         <v>428</v>
       </c>
@@ -11298,7 +11329,7 @@
       <c r="D14" s="57"/>
       <c r="E14" s="58"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15" s="55"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
@@ -11306,7 +11337,7 @@
       <c r="D15" s="57"/>
       <c r="E15" s="58"/>
     </row>
-    <row r="16" spans="2:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="195">
       <c r="B16" s="55" t="s">
         <v>431</v>
       </c>
@@ -11316,7 +11347,7 @@
       <c r="D16" s="57"/>
       <c r="E16" s="58"/>
     </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" s="55" t="s">
         <v>431</v>
       </c>
@@ -11326,7 +11357,7 @@
       <c r="D17" s="57"/>
       <c r="E17" s="58"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="55" t="s">
         <v>436</v>
       </c>
@@ -11336,19 +11367,19 @@
       <c r="D18" s="57"/>
       <c r="E18" s="58"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="55"/>
       <c r="C19" s="56"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
     </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="15.75" thickBot="1">
       <c r="B20" s="59"/>
       <c r="C20" s="60"/>
       <c r="D20" s="61"/>
       <c r="E20" s="62"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" s="9" t="s">
         <v>406</v>
       </c>
@@ -11356,7 +11387,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="30">
       <c r="B23" s="9" t="s">
         <v>408</v>
       </c>
@@ -11364,12 +11395,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="C29" s="9" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4">
       <c r="B52" s="9" t="s">
         <v>411</v>
       </c>
@@ -11377,13 +11408,13 @@
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4">
       <c r="C53" s="50" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="55" spans="2:4" ht="15.75" thickBot="1">
       <c r="B55" s="51" t="s">
         <v>442</v>
       </c>
@@ -11394,7 +11425,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4">
       <c r="B56" s="55"/>
       <c r="C56" s="57" t="s">
         <v>457</v>
@@ -11403,7 +11434,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" ht="75">
       <c r="B57" s="55"/>
       <c r="C57" s="57" t="s">
         <v>444</v>
@@ -11412,7 +11443,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4">
       <c r="B58" s="55"/>
       <c r="C58" s="57" t="s">
         <v>445</v>
@@ -11421,12 +11452,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4">
       <c r="B59" s="55"/>
       <c r="C59" s="57"/>
       <c r="D59" s="64"/>
     </row>
-    <row r="60" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" ht="15.75" thickBot="1">
       <c r="B60" s="59"/>
       <c r="C60" s="61" t="s">
         <v>453</v>
@@ -11435,17 +11466,17 @@
         <v>448</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4">
       <c r="B62" s="9" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96" s="9" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="101" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" ht="60">
       <c r="B101" s="9" t="s">
         <v>710</v>
       </c>
@@ -11456,12 +11487,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4">
       <c r="C102" s="26" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="103" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" ht="45">
       <c r="C103" s="9" t="s">
         <v>717</v>
       </c>
@@ -11469,7 +11500,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4">
       <c r="B106" s="9" t="s">
         <v>714</v>
       </c>
@@ -11477,22 +11508,22 @@
         <v>715</v>
       </c>
     </row>
-    <row r="107" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" ht="45">
       <c r="C107" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4">
       <c r="C108" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4">
       <c r="C109" s="9" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4">
       <c r="C110" s="9" t="s">
         <v>721</v>
       </c>
@@ -11505,19 +11536,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -11528,14 +11559,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
@@ -11543,12 +11574,12 @@
     <col min="4" max="4" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="D1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -11562,7 +11593,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>372</v>
       </c>
@@ -11576,35 +11607,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.42578125" style="9" customWidth="1"/>
     <col min="2" max="2" width="95.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45">
       <c r="A1" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="45">
       <c r="A4" s="9" t="s">
         <v>279</v>
       </c>
@@ -11612,7 +11643,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="75">
       <c r="A5" s="9" t="s">
         <v>280</v>
       </c>
@@ -11620,17 +11651,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="45">
       <c r="A7" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="210">
       <c r="A9" s="9" t="s">
         <v>330</v>
       </c>
@@ -11638,7 +11669,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
         <v>433</v>
       </c>
@@ -11646,7 +11677,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>459</v>
       </c>
@@ -11654,7 +11685,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="30.75">
       <c r="A13" s="9" t="s">
         <v>460</v>
       </c>
@@ -11662,7 +11693,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="75.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="75.75">
       <c r="A14" s="77" t="s">
         <v>507</v>
       </c>
@@ -11670,7 +11701,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>461</v>
       </c>
@@ -11678,22 +11709,22 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="16.5">
       <c r="A20" s="77" t="s">
         <v>497</v>
       </c>
@@ -11701,7 +11732,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="45">
       <c r="A22" s="9" t="s">
         <v>502</v>
       </c>
@@ -11709,7 +11740,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
         <v>503</v>
       </c>
@@ -11717,7 +11748,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="45">
       <c r="A25" s="9" t="s">
         <v>506</v>
       </c>
@@ -11725,398 +11756,398 @@
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="B29" s="81" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1">
       <c r="B30" s="69"/>
     </row>
-    <row r="31" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="34.5">
       <c r="B31" s="87" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="B32" s="88" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" s="89"/>
     </row>
-    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="15.75" thickBot="1">
       <c r="B34" s="90" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="15.75" thickBot="1">
       <c r="B35" s="69"/>
     </row>
-    <row r="36" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="34.5">
       <c r="B36" s="91" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="30">
       <c r="B37" s="92" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" s="93"/>
     </row>
-    <row r="39" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="30.75" thickBot="1">
       <c r="B39" s="94" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" s="69"/>
     </row>
-    <row r="41" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" ht="34.5">
       <c r="B41" s="82" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" s="81" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" s="80"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" s="81" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2">
       <c r="B45" s="69"/>
     </row>
-    <row r="46" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="34.5">
       <c r="B46" s="82" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" s="81" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" s="69"/>
     </row>
-    <row r="49" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="34.5">
       <c r="B49" s="82" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="30">
       <c r="B50" s="81" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="69"/>
     </row>
-    <row r="52" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="34.5">
       <c r="B52" s="82" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" s="81" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" s="69"/>
     </row>
-    <row r="55" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="34.5">
       <c r="B55" s="82" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="15.75" thickBot="1">
       <c r="B56" s="69"/>
     </row>
-    <row r="57" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="34.5">
       <c r="B57" s="87" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="60.75" thickBot="1">
       <c r="B58" s="90" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" s="69"/>
     </row>
-    <row r="60" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" ht="34.5">
       <c r="B60" s="82" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61" s="81" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" s="69"/>
     </row>
-    <row r="63" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" ht="34.5">
       <c r="B63" s="82" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" ht="30">
       <c r="B64" s="81" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="69"/>
     </row>
-    <row r="66" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="34.5">
       <c r="B66" s="84" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="85" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="86"/>
     </row>
-    <row r="69" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" ht="30">
       <c r="B69" s="85" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="69"/>
     </row>
-    <row r="71" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="34.5">
       <c r="B71" s="95" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="96" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="97"/>
     </row>
-    <row r="74" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" ht="45">
       <c r="B74" s="96" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" s="69"/>
     </row>
-    <row r="76" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" ht="34.5">
       <c r="B76" s="84" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="85" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" s="85" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" s="85" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" s="85" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="30">
       <c r="B81" s="85" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="69"/>
     </row>
-    <row r="83" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="34.5">
       <c r="B83" s="98" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" s="99" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" s="69"/>
     </row>
-    <row r="86" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="34.5">
       <c r="B86" s="82" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87" s="81" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" s="80"/>
     </row>
-    <row r="89" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="30">
       <c r="B89" s="81" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="90" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" ht="15.75" thickBot="1">
       <c r="B90" s="80"/>
     </row>
-    <row r="91" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" ht="15.75" thickBot="1">
       <c r="B91" s="83" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92" s="69"/>
     </row>
-    <row r="93" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" ht="34.5">
       <c r="B93" s="82" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" s="69"/>
     </row>
-    <row r="95" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" ht="34.5">
       <c r="B95" s="82" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96" s="81" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97" s="80"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2">
       <c r="B98" s="81" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99" s="80"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2">
       <c r="B100" s="81" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2">
       <c r="B101" s="81" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="60">
       <c r="B102" s="81" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2">
       <c r="B103" s="69"/>
     </row>
-    <row r="104" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="34.5">
       <c r="B104" s="84" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2">
       <c r="B105" s="85" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2">
       <c r="B106" s="69"/>
     </row>
-    <row r="107" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="34.5">
       <c r="B107" s="82" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2">
       <c r="B108" s="81" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2">
       <c r="B109" s="69"/>
     </row>
-    <row r="110" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="34.5">
       <c r="B110" s="82" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2">
       <c r="B111" s="81" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2">
       <c r="B112" s="80"/>
     </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="30">
       <c r="B113" s="81" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="B114" s="69"/>
     </row>
-    <row r="115" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="34.5">
       <c r="B115" s="82" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="B116" s="81" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="B117" s="69"/>
     </row>
-    <row r="118" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="34.5">
       <c r="B118" s="82" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="B119" s="81" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="9" t="s">
         <v>617</v>
       </c>
@@ -12124,7 +12155,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="B126"/>
     </row>
   </sheetData>
